--- a/female_coercion/focal_data.xlsx
+++ b/female_coercion/focal_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jy33\OneDrive\Desktop\R\female_fitness\female_coercion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EEA717-AED6-4FB5-98A8-AB0434BCA0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A43F3D-D732-4E34-A302-B630CCC21E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{81434B7D-A979-43EF-AB90-7A710EE87B78}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="22">
   <si>
     <t>day</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>insem_start</t>
-  </si>
-  <si>
-    <t>trial_end</t>
   </si>
   <si>
     <t>insem_dur</t>
@@ -93,6 +90,21 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>insem_end</t>
+  </si>
+  <si>
+    <t>con_insem_dur</t>
+  </si>
+  <si>
+    <t>con_prop_run</t>
+  </si>
+  <si>
+    <t>con_prop_insem_resist</t>
+  </si>
+  <si>
+    <t>con_insem_lat</t>
   </si>
 </sst>
 </file>
@@ -444,15 +456,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031ECB97-DABA-4DDA-8F72-5AC44F1B5DF4}">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R11:R12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U3" sqref="U3:V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1328125" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.46484375" customWidth="1"/>
+    <col min="19" max="19" width="19.1328125" customWidth="1"/>
+    <col min="20" max="20" width="12.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,45 +490,57 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -551,13 +584,28 @@
       <c r="P2">
         <v>909.49599999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q2">
+        <f>G2-74.749</f>
+        <v>-14.990999999999993</v>
+      </c>
+      <c r="R2">
+        <f>N2-0</f>
+        <v>5.9365243785426697E-3</v>
+      </c>
+      <c r="S2">
+        <f>O2-0.314009</f>
+        <v>-0.31400899999999998</v>
+      </c>
+      <c r="T2">
+        <v>840.00099999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -601,13 +649,28 @@
       <c r="P3">
         <v>49.058</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q3">
+        <f>G3-74.749</f>
+        <v>-19.254999999999995</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="0">N3-0</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S15" si="1">O3-0.314009</f>
+        <v>0.28994818456049298</v>
+      </c>
+      <c r="T3">
+        <v>-20.437000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -651,13 +714,28 @@
       <c r="P4">
         <v>70.995000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q4">
+        <f>G4-74.749</f>
+        <v>-2.4989999999999952</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>0.37112594809688604</v>
+      </c>
+      <c r="T4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -666,13 +744,13 @@
         <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>172.92400000000001</v>
@@ -696,18 +774,31 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -751,13 +842,28 @@
       <c r="P6">
         <v>335.25599999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q6">
+        <f>G6-74.749</f>
+        <v>84.763000000000005</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>-0.24342496870454888</v>
+      </c>
+      <c r="T6">
+        <v>265.76099999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -801,13 +907,28 @@
       <c r="P7">
         <v>25.757000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q7">
+        <f>G7-74.749</f>
+        <v>3.7560000000000002</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0.26820869314056406</v>
+      </c>
+      <c r="T7">
+        <v>-43.738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -851,13 +972,28 @@
       <c r="P8">
         <v>164.00899999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q8">
+        <f>G8-74.749</f>
+        <v>-16.492999999999995</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>0.130398398308326</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>-0.29689488299917599</v>
+      </c>
+      <c r="T8">
+        <v>94.513999999999982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -901,13 +1037,28 @@
       <c r="P9">
         <v>439.98899999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q9">
+        <f>G9-74.749</f>
+        <v>-11.497999999999998</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>1.0933153167474801E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>-0.31400899999999998</v>
+      </c>
+      <c r="T9">
+        <v>370.49399999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -951,13 +1102,28 @@
       <c r="P10">
         <v>33.264000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q10">
+        <f>G10-74.749</f>
+        <v>-28.997999999999998</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0.50013713888221001</v>
+      </c>
+      <c r="T10">
+        <v>-36.231000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1001,13 +1167,28 @@
       <c r="P11">
         <v>77.510999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q11">
+        <f>G11-74.749</f>
+        <v>-11.000999999999998</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>7.0650365640419401E-3</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>-3.166288718077398E-2</v>
+      </c>
+      <c r="T11">
+        <v>8.0159999999999911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1051,13 +1232,28 @@
       <c r="P12">
         <v>47.776000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q12">
+        <f>G12-74.749</f>
+        <v>-16.755999999999993</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>-0.27524570098115286</v>
+      </c>
+      <c r="T12">
+        <v>-21.719000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1101,13 +1297,28 @@
       <c r="P13">
         <v>237.23400000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q13">
+        <f>G13-74.749</f>
+        <v>-16.238999999999997</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>-0.31400899999999998</v>
+      </c>
+      <c r="T13">
+        <v>167.739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1151,13 +1362,28 @@
       <c r="P14">
         <v>281.77800000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q14">
+        <f>G14-74.749</f>
+        <v>-1.9939999999999998</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>-0.31400899999999998</v>
+      </c>
+      <c r="T14">
+        <v>212.28300000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1201,13 +1427,28 @@
       <c r="P15">
         <v>112.779</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q15">
+        <f>G15-74.749</f>
+        <v>-28.777999999999999</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>9.4425196850393706E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>-0.31400899999999998</v>
+      </c>
+      <c r="T15">
+        <v>43.283999999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1251,13 +1492,28 @@
       <c r="P16">
         <v>87.010999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q16">
+        <f>G16-69.717</f>
+        <v>-33.966000000000001</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>1.4255225558397601E-2</v>
+      </c>
+      <c r="S16">
+        <f>O16-0.446636</f>
+        <v>-0.4186927256859948</v>
+      </c>
+      <c r="T16">
+        <v>57.662999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1301,13 +1557,28 @@
       <c r="P17">
         <v>4.7229999999999803</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q17">
+        <f>G17-69.717</f>
+        <v>-17.939999999999998</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" ref="S17:S28" si="2">O17-0.446636</f>
+        <v>-0.37867145976012517</v>
+      </c>
+      <c r="T17">
+        <v>-24.625000000000018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1351,13 +1622,28 @@
       <c r="P18">
         <v>90.257999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q18">
+        <f>G18-69.717</f>
+        <v>-28.963000000000001</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>-0.24407919575992498</v>
+      </c>
+      <c r="T18">
+        <v>60.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1401,13 +1687,28 @@
       <c r="P19">
         <v>8.9960000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q19">
+        <f>G19-69.717</f>
+        <v>-36.46</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>-0.44663599999999998</v>
+      </c>
+      <c r="T19">
+        <v>-20.351999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1451,13 +1752,28 @@
       <c r="P20">
         <v>246.488</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q20">
+        <f>G20-69.717</f>
+        <v>-10.960999999999999</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>-0.44663599999999998</v>
+      </c>
+      <c r="T20">
+        <v>217.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1501,13 +1817,28 @@
       <c r="P21">
         <v>29.992999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q21">
+        <f>G21-69.717</f>
+        <v>-33.210999999999999</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>-0.44663599999999998</v>
+      </c>
+      <c r="T21">
+        <v>0.64499999999999957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1551,13 +1882,28 @@
       <c r="P22">
         <v>82.503</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q22">
+        <f>G22-69.717</f>
+        <v>-22.954000000000001</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>0.123922763913171</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>-4.5485517781151952E-2</v>
+      </c>
+      <c r="T22">
+        <v>53.155000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1601,13 +1947,28 @@
       <c r="P23">
         <v>153.76</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q23">
+        <f>G23-69.717</f>
+        <v>-35.458999999999996</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>-0.35165088703368558</v>
+      </c>
+      <c r="T23">
+        <v>124.41199999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1651,13 +2012,28 @@
       <c r="P24">
         <v>172.233</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q24">
+        <f>G24-69.717</f>
+        <v>-20.451000000000001</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>-0.21808080980798097</v>
+      </c>
+      <c r="T24">
+        <v>142.88499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -1701,13 +2077,28 @@
       <c r="P25">
         <v>207.49700000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q25">
+        <f>G25-69.717</f>
+        <v>8.0430000000000064</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>-0.44663599999999998</v>
+      </c>
+      <c r="T25">
+        <v>178.149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1751,13 +2142,28 @@
       <c r="P26">
         <v>33.764000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q26">
+        <f>G26-69.717</f>
+        <v>-12.469999999999999</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="0"/>
+        <v>1.6481524211359101E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>-0.44663599999999998</v>
+      </c>
+      <c r="T26">
+        <v>4.4160000000000039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1801,13 +2207,28 @@
       <c r="P27">
         <v>114.52500000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q27">
+        <f>G27-69.717</f>
+        <v>-18.723999999999997</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="0"/>
+        <v>7.5460070808008803E-3</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>-0.23086128582354398</v>
+      </c>
+      <c r="T27">
+        <v>85.177000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1851,13 +2272,28 @@
       <c r="P28">
         <v>81.757999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q28">
+        <f>G28-69.717</f>
+        <v>17.783000000000001</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>-0.44663599999999998</v>
+      </c>
+      <c r="T28">
+        <v>52.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1901,13 +2337,28 @@
       <c r="P29">
         <v>62.536000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q29">
+        <f>G28-53.494</f>
+        <v>34.006</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f>O29-0.105691</f>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T29">
+        <v>60.756999999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1951,13 +2402,28 @@
       <c r="P30">
         <v>215.78200000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q30">
+        <f>G29-53.494</f>
+        <v>11.753</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="0"/>
+        <v>1.7580967695384201E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:S41" si="3">O30-0.105691</f>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T30">
+        <v>41.534999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2001,13 +2467,28 @@
       <c r="P31">
         <v>22.245999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q31">
+        <f>G30-53.494</f>
+        <v>-26.741</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T31">
+        <v>194.78100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2051,13 +2532,28 @@
       <c r="P32">
         <v>949.77200000000005</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q32">
+        <f>G31-53.494</f>
+        <v>-18.741999999999997</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="0"/>
+        <v>1.1377568981633199E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T32">
+        <v>1.2449999999999974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2101,13 +2597,28 @@
       <c r="P33">
         <v>586.99699999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q33">
+        <f>G32-53.494</f>
+        <v>-14.741999999999997</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="0"/>
+        <v>2.74415180120284E-3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T33">
+        <v>928.77100000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2151,13 +2662,28 @@
       <c r="P34">
         <v>44.78</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q34">
+        <f>G33-53.494</f>
+        <v>-3.5</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="3"/>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T34">
+        <v>565.99599999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2201,13 +2727,28 @@
       <c r="P35">
         <v>9.2509999999999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q35">
+        <f>G34-53.494</f>
+        <v>-27.497</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="0"/>
+        <v>1.22418123734972E-2</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="3"/>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T35">
+        <v>23.779</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2251,13 +2792,28 @@
       <c r="P36">
         <v>24.227</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q36">
+        <f>G35-53.494</f>
+        <v>-21.738</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="3"/>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T36">
+        <v>-11.750000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2301,13 +2857,28 @@
       <c r="P37">
         <v>44.267000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q37">
+        <f>G36-53.494</f>
+        <v>-27.48</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>1.3727430126144E-2</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="3"/>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T37">
+        <v>3.2259999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2351,13 +2922,28 @@
       <c r="P38">
         <v>76.010999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q38">
+        <f>G37-53.494</f>
+        <v>-24.986999999999998</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>6.3482718367761204E-2</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="3"/>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T38">
+        <v>23.266000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -2401,13 +2987,28 @@
       <c r="P39">
         <v>177.98099999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q39">
+        <f>G38-53.494</f>
+        <v>-30.99</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>2.1721872791827701E-3</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="3"/>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T39">
+        <v>55.009999999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2451,13 +3052,28 @@
       <c r="P40">
         <v>17.253</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q40">
+        <f>G39-53.494</f>
+        <v>-2.213000000000001</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="3"/>
+        <v>-0.10569099999999999</v>
+      </c>
+      <c r="T40">
+        <v>156.97999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -2501,13 +3117,28 @@
       <c r="P41">
         <v>29.513999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q41">
+        <f>G40-53.494</f>
+        <v>-36.736000000000004</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>3.94312497312483E-2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="3"/>
+        <v>0.33536929364271001</v>
+      </c>
+      <c r="T41">
+        <v>-3.7480000000000011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -2551,13 +3182,28 @@
       <c r="P42">
         <v>456.49400000000003</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q42">
+        <f>G42-57.746</f>
+        <v>-33.981000000000002</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="0"/>
+        <v>6.9318846705631806E-2</v>
+      </c>
+      <c r="S42">
+        <f>O42-0.059482</f>
+        <v>-5.9482E-2</v>
+      </c>
+      <c r="T42">
+        <v>415.47650000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2601,13 +3247,28 @@
       <c r="P43">
         <v>86.009</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q43">
+        <f>G43-57.746</f>
+        <v>-16.756</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="0"/>
+        <v>9.4221214340270407E-2</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ref="S43:S54" si="4">O43-0.059482</f>
+        <v>-5.9482E-2</v>
+      </c>
+      <c r="T43">
+        <v>44.991500000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2651,13 +3312,28 @@
       <c r="P44">
         <v>6.9989999999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q44">
+        <f>G44-57.746</f>
+        <v>-10.231000000000002</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="4"/>
+        <v>-5.9482E-2</v>
+      </c>
+      <c r="T44">
+        <v>-34.018499999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2701,13 +3377,28 @@
       <c r="P45">
         <v>64.498999999999995</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q45">
+        <f>G45-57.746</f>
+        <v>-18.491</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="0"/>
+        <v>5.50243846020394E-2</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="4"/>
+        <v>-8.4566529104573018E-3</v>
+      </c>
+      <c r="T45">
+        <v>23.481499999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -2751,13 +3442,28 @@
       <c r="P46">
         <v>148.00299999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q46">
+        <f>G46-57.746</f>
+        <v>-29.489000000000001</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>7.6585725632588197E-2</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="4"/>
+        <v>-5.9482E-2</v>
+      </c>
+      <c r="T46">
+        <v>106.98549999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -2801,13 +3507,28 @@
       <c r="P47">
         <v>161.25299999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q47">
+        <f>G47-57.746</f>
+        <v>-11.009</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="4"/>
+        <v>0.26711149123820505</v>
+      </c>
+      <c r="T47">
+        <v>120.23549999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -2851,13 +3572,28 @@
       <c r="P48">
         <v>39.265999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q48">
+        <f>G48-57.746</f>
+        <v>-33.513000000000005</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="0"/>
+        <v>7.4961810422211395E-2</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="4"/>
+        <v>0.125059740601659</v>
+      </c>
+      <c r="T48">
+        <v>-1.7515000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2901,13 +3637,28 @@
       <c r="P49">
         <v>5.2779999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q49">
+        <f>G49-57.746</f>
+        <v>-15.744</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="4"/>
+        <v>-5.9482E-2</v>
+      </c>
+      <c r="T49">
+        <v>-35.7395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2951,13 +3702,28 @@
       <c r="P50">
         <v>70.747</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q50">
+        <f>G50-57.746</f>
+        <v>-15.993000000000002</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="0"/>
+        <v>0.13563555555555601</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="4"/>
+        <v>-4.1327615883888599E-2</v>
+      </c>
+      <c r="T50">
+        <v>29.729500000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3001,13 +3767,28 @@
       <c r="P51">
         <v>128.994</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q51">
+        <f>G51-57.746</f>
+        <v>-10.989000000000004</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="0"/>
+        <v>2.5610096101871399E-2</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="4"/>
+        <v>-1.6793204739397299E-2</v>
+      </c>
+      <c r="T51">
+        <v>87.976500000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3051,13 +3832,28 @@
       <c r="P52">
         <v>329.74599999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q52">
+        <f>G52-57.746</f>
+        <v>-31.246000000000002</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>4.56341965944881E-2</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="4"/>
+        <v>-5.9482E-2</v>
+      </c>
+      <c r="T52">
+        <v>288.7285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3101,13 +3897,28 @@
       <c r="P53">
         <v>96.013999999999996</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q53">
+        <f>G53-57.746</f>
+        <v>8.7520000000000024</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="0"/>
+        <v>4.9288667913754101E-2</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="4"/>
+        <v>-4.0639328039941101E-2</v>
+      </c>
+      <c r="T53">
+        <v>54.996499999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3151,13 +3962,28 @@
       <c r="P54">
         <v>180.27600000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q54">
+        <f>G54-57.746</f>
+        <v>-23.014000000000003</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="0"/>
+        <v>3.4896375948801898E-2</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="4"/>
+        <v>-5.9482E-2</v>
+      </c>
+      <c r="T54">
+        <v>139.25850000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -3201,13 +4027,28 @@
       <c r="P55">
         <v>49.738999999999997</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q55">
+        <f>G55-57.497</f>
+        <v>1.0279999999999987</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f>O55-0.112603</f>
+        <v>0.13946022084579202</v>
+      </c>
+      <c r="T55">
+        <v>-0.76650000000000063</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3251,13 +4092,28 @@
       <c r="P56">
         <v>34.49</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q56">
+        <f>G56-57.497</f>
+        <v>-28.878</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="0"/>
+        <v>2.43071511194917E-2</v>
+      </c>
+      <c r="S56">
+        <f t="shared" ref="S56:S67" si="5">O56-0.112603</f>
+        <v>-3.9190232258289895E-2</v>
+      </c>
+      <c r="T56">
+        <v>-16.015499999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -3301,13 +4157,28 @@
       <c r="P57">
         <v>29.640999999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q57">
+        <f>G57-57.497</f>
+        <v>-23.725000000000001</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="0"/>
+        <v>3.6522479617743998E-2</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="5"/>
+        <v>-0.11260299999999999</v>
+      </c>
+      <c r="T57">
+        <v>-20.8645</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3351,13 +4222,28 @@
       <c r="P58">
         <v>85.242000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q58">
+        <f>G58-57.497</f>
+        <v>-34.75</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="0"/>
+        <v>1.9455685301280699E-2</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="5"/>
+        <v>0.45859320169692697</v>
+      </c>
+      <c r="T58">
+        <v>34.736500000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3401,13 +4287,28 @@
       <c r="P59">
         <v>26.513999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q59">
+        <f>G59-57.497</f>
+        <v>-17.493000000000002</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="0"/>
+        <v>1.8867073574070199E-2</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="5"/>
+        <v>-0.11260299999999999</v>
+      </c>
+      <c r="T59">
+        <v>-23.991499999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3451,13 +4352,28 @@
       <c r="P60">
         <v>1141.001</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q60">
+        <f>G60-57.497</f>
+        <v>-21.741</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="0"/>
+        <v>1.27214029744459E-3</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="5"/>
+        <v>-4.9592596151694798E-2</v>
+      </c>
+      <c r="T60">
+        <v>1090.4955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3501,13 +4417,28 @@
       <c r="P61">
         <v>86.016999999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q61">
+        <f>G61-57.497</f>
+        <v>-15.252000000000002</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="0"/>
+        <v>8.9769378303784397E-2</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="5"/>
+        <v>-0.11260299999999999</v>
+      </c>
+      <c r="T61">
+        <v>35.511499999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3551,13 +4482,28 @@
       <c r="P62">
         <v>111.526</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q62">
+        <f>G62-57.497</f>
+        <v>58.478999999999999</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="0"/>
+        <v>3.7406264560311597E-2</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="5"/>
+        <v>0.55572492991653499</v>
+      </c>
+      <c r="T62">
+        <v>61.020499999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -3601,13 +4547,28 @@
       <c r="P63">
         <v>314.74900000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q63">
+        <f>G63-57.497</f>
+        <v>-10.747</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="0"/>
+        <v>6.5706959078724994E-2</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="5"/>
+        <v>0.235140315508021</v>
+      </c>
+      <c r="T63">
+        <v>264.24350000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -3651,13 +4612,28 @@
       <c r="P64">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q64">
+        <f>G64-57.497</f>
+        <v>-39.492999999999995</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="5"/>
+        <v>-0.11260299999999999</v>
+      </c>
+      <c r="T64">
+        <v>-48.005499999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3701,13 +4677,28 @@
       <c r="P65">
         <v>9.7520000000000007</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q65">
+        <f>G65-57.497</f>
+        <v>-25.995000000000001</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="0"/>
+        <v>6.1327386435254799E-3</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="5"/>
+        <v>1.4309576979239E-2</v>
+      </c>
+      <c r="T65">
+        <v>-40.753499999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -3751,13 +4742,28 @@
       <c r="P66">
         <v>98.515000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q66">
+        <f>G66-57.497</f>
+        <v>-13.991</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="0"/>
+        <v>4.76549242717626E-2</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="5"/>
+        <v>-0.10092644963913019</v>
+      </c>
+      <c r="T66">
+        <v>48.009500000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3801,13 +4807,28 @@
       <c r="P67">
         <v>28.515000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q67">
+        <f>G67-57.497</f>
+        <v>-32.241</v>
+      </c>
+      <c r="R67">
+        <f>N67-0</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="5"/>
+        <v>-0.11260299999999999</v>
+      </c>
+      <c r="T67">
+        <v>-21.990499999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -3851,13 +4872,28 @@
       <c r="P68">
         <v>138.37200000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q68">
+        <f>G68-75.251</f>
+        <v>-46.532000000000004</v>
+      </c>
+      <c r="R68">
+        <f>N68-0.003078</f>
+        <v>6.4585728148134805E-2</v>
+      </c>
+      <c r="S68">
+        <f>O68-0.04322</f>
+        <v>0.292411463491069</v>
+      </c>
+      <c r="T68">
+        <v>3.4990000000000236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -3901,13 +4937,28 @@
       <c r="P69">
         <v>515.77200000000005</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q69">
+        <f>G69-75.251</f>
+        <v>26.501999999999995</v>
+      </c>
+      <c r="R69">
+        <f t="shared" ref="R69:R80" si="6">N69-0.003078</f>
+        <v>1.4404693008380199E-2</v>
+      </c>
+      <c r="S69">
+        <f t="shared" ref="S69:S80" si="7">O69-0.04322</f>
+        <v>0.44316369384686399</v>
+      </c>
+      <c r="T69">
+        <v>380.89900000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -3951,13 +5002,28 @@
       <c r="P70">
         <v>45.515000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q70">
+        <f>G70-75.251</f>
+        <v>-43.76100000000001</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="6"/>
+        <v>2.2907325628206E-2</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="7"/>
+        <v>0.16332175928866299</v>
+      </c>
+      <c r="T70">
+        <v>-89.35799999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -4001,13 +5067,28 @@
       <c r="P71">
         <v>97.021000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q71">
+        <f>G71-75.251</f>
+        <v>-31.996000000000002</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="6"/>
+        <v>3.0755300065584999E-2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="7"/>
+        <v>0.257253933649289</v>
+      </c>
+      <c r="T71">
+        <v>-37.85199999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4051,13 +5132,28 @@
       <c r="P72">
         <v>991.00400000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q72">
+        <f>G72-75.251</f>
+        <v>-43.745000000000005</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="6"/>
+        <v>7.7003786955629006E-3</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="7"/>
+        <v>3.6256925030152994E-2</v>
+      </c>
+      <c r="T72">
+        <v>856.13100000000009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -4101,13 +5197,28 @@
       <c r="P73">
         <v>196.74700000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q73">
+        <f>G73-75.251</f>
+        <v>-26.764000000000003</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="6"/>
+        <v>9.9973799717821034E-4</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="7"/>
+        <v>-4.3220000000000001E-2</v>
+      </c>
+      <c r="T73">
+        <v>61.874000000000024</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -4151,13 +5262,28 @@
       <c r="P74">
         <v>616.26599999999996</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q74">
+        <f>G74-75.251</f>
+        <v>-52.498000000000005</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="6"/>
+        <v>1.8832146646656799E-2</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="7"/>
+        <v>-4.3220000000000001E-2</v>
+      </c>
+      <c r="T74">
+        <v>481.39299999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4201,13 +5327,28 @@
       <c r="P75">
         <v>232.261</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q75">
+        <f>G75-75.251</f>
+        <v>-40.742000000000004</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="6"/>
+        <v>3.9153135435018901E-2</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="7"/>
+        <v>0.304544351328639</v>
+      </c>
+      <c r="T75">
+        <v>97.388000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4251,13 +5392,28 @@
       <c r="P76">
         <v>636.73800000000006</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q76">
+        <f>G76-75.251</f>
+        <v>-46.249000000000009</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="6"/>
+        <v>6.3040410370414903E-3</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="7"/>
+        <v>-1.5400455141020147E-4</v>
+      </c>
+      <c r="T76">
+        <v>501.86500000000007</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4301,13 +5457,28 @@
       <c r="P77">
         <v>6.7519999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q77">
+        <f>G77-75.251</f>
+        <v>-31.990000000000002</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="6"/>
+        <v>-3.078E-3</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="7"/>
+        <v>0.234374137907122</v>
+      </c>
+      <c r="T77">
+        <v>-128.12099999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4351,13 +5522,28 @@
       <c r="P78">
         <v>122.486</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="Q78">
+        <f>G78-75.251</f>
+        <v>-16.998000000000005</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="6"/>
+        <v>0.12699353962343501</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="7"/>
+        <v>0.79792122877791694</v>
+      </c>
+      <c r="T78">
+        <v>-12.386999999999986</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4366,13 +5552,13 @@
         <v>144</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79">
         <v>32.414000000000001</v>
@@ -4396,18 +5582,31 @@
         <v>5.4613333333333298E-2</v>
       </c>
       <c r="O79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>16</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="6"/>
+        <v>5.1535333333333301E-2</v>
+      </c>
+      <c r="S79" t="s">
+        <v>16</v>
+      </c>
+      <c r="T79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4425,7 +5624,7 @@
         <v>21.763000000000002</v>
       </c>
       <c r="H80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I80">
         <v>7.4989999999999997</v>
@@ -4449,7 +5648,22 @@
         <v>0.16114506272113199</v>
       </c>
       <c r="P80" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="Q80">
+        <f>G80-75.251</f>
+        <v>-53.488</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="6"/>
+        <v>3.1711666666666702E-3</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="7"/>
+        <v>0.11792506272113198</v>
+      </c>
+      <c r="T80" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
